--- a/distributions/distribution_f8_random_1p.xlsx
+++ b/distributions/distribution_f8_random_1p.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A667"/>
+  <dimension ref="A1:A643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,222 +432,222 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.002890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.005780346820809248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.005780346820809248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.005780346820809248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.005780346820809248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.008670520231213872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.008670520231213872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.008670520231213872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.008670520231213872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.0115606936416185</v>
+        <v>0.002890173410404624</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.0115606936416185</v>
+        <v>0.002890173410404624</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.0115606936416185</v>
+        <v>0.002890173410404624</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.0115606936416185</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.0115606936416185</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.01445086705202312</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.01445086705202312</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.01445086705202312</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.01445086705202312</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.01445086705202312</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.01445086705202312</v>
+        <v>0.008670520231213872</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.01445086705202312</v>
+        <v>0.008670520231213872</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.01445086705202312</v>
+        <v>0.008670520231213872</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.01445086705202312</v>
+        <v>0.008670520231213872</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.01445086705202312</v>
+        <v>0.008670520231213872</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.01445086705202312</v>
+        <v>0.008670520231213872</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.01445086705202312</v>
+        <v>0.0115606936416185</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.01445086705202312</v>
+        <v>0.01734104046242774</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.01445086705202312</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.01734104046242774</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -662,57 +662,57 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.02312138728323699</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.02601156069364162</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.02601156069364162</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.02601156069364162</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.02601156069364162</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.02601156069364162</v>
+        <v>0.02023121387283237</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.02601156069364162</v>
+        <v>0.02312138728323699</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.02601156069364162</v>
+        <v>0.02312138728323699</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.02890173410404624</v>
+        <v>0.02601156069364162</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.02890173410404624</v>
+        <v>0.02601156069364162</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.02890173410404624</v>
+        <v>0.02601156069364162</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -727,27 +727,27 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.03179190751445087</v>
+        <v>0.02890173410404624</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.03179190751445087</v>
+        <v>0.02890173410404624</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.03468208092485549</v>
+        <v>0.02890173410404624</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.03468208092485549</v>
+        <v>0.03179190751445087</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.03468208092485549</v>
+        <v>0.03757225433526012</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -757,17 +757,17 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.03757225433526012</v>
+        <v>0.04046242774566474</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.03757225433526012</v>
+        <v>0.04046242774566474</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.03757225433526012</v>
+        <v>0.04046242774566474</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -777,22 +777,22 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.04046242774566474</v>
+        <v>0.04335260115606936</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.04046242774566474</v>
+        <v>0.04335260115606936</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.04335260115606936</v>
+        <v>0.04624277456647399</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.04335260115606936</v>
+        <v>0.04624277456647399</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -802,7 +802,7 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.04624277456647399</v>
+        <v>0.04913294797687862</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -817,837 +817,837 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.04913294797687862</v>
+        <v>0.05202312138728324</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.04913294797687862</v>
+        <v>0.05202312138728324</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.04913294797687862</v>
+        <v>0.05202312138728324</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.05202312138728324</v>
+        <v>0.06358381502890173</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.05202312138728324</v>
+        <v>0.06647398843930635</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.05491329479768786</v>
+        <v>0.06936416184971098</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.05491329479768786</v>
+        <v>0.06936416184971098</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.06069364161849711</v>
+        <v>0.07225433526011561</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.06069364161849711</v>
+        <v>0.07225433526011561</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.06069364161849711</v>
+        <v>0.07803468208092486</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.06647398843930635</v>
+        <v>0.07803468208092486</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.06647398843930635</v>
+        <v>0.08092485549132948</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.06936416184971098</v>
+        <v>0.08092485549132948</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.06936416184971098</v>
+        <v>0.08092485549132948</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.06936416184971098</v>
+        <v>0.0838150289017341</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.07514450867052024</v>
+        <v>0.08959537572254335</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.07514450867052024</v>
+        <v>0.08959537572254335</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.07514450867052024</v>
+        <v>0.0953757225433526</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.07514450867052024</v>
+        <v>0.09826589595375723</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.08092485549132948</v>
+        <v>0.09826589595375723</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.08092485549132948</v>
+        <v>0.1011560693641619</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.08092485549132948</v>
+        <v>0.1069364161849711</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.0838150289017341</v>
+        <v>0.1098265895953757</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.0838150289017341</v>
+        <v>0.1127167630057803</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.09248554913294797</v>
+        <v>0.115606936416185</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.09248554913294797</v>
+        <v>0.1184971098265896</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.1011560693641619</v>
+        <v>0.1213872832369942</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.1011560693641619</v>
+        <v>0.1271676300578035</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.1011560693641619</v>
+        <v>0.1271676300578035</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.1011560693641619</v>
+        <v>0.1300578034682081</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.1069364161849711</v>
+        <v>0.1358381502890173</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.1069364161849711</v>
+        <v>0.1358381502890173</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.1069364161849711</v>
+        <v>0.138728323699422</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.1069364161849711</v>
+        <v>0.1445086705202312</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.1098265895953757</v>
+        <v>0.1445086705202312</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.1127167630057803</v>
+        <v>0.1445086705202312</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.1184971098265896</v>
+        <v>0.1502890173410405</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.1213872832369942</v>
+        <v>0.1560693641618497</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.1213872832369942</v>
+        <v>0.1560693641618497</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.1213872832369942</v>
+        <v>0.1589595375722543</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.1213872832369942</v>
+        <v>0.1589595375722543</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.1213872832369942</v>
+        <v>0.1589595375722543</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.1213872832369942</v>
+        <v>0.161849710982659</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.1213872832369942</v>
+        <v>0.1647398843930636</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.1213872832369942</v>
+        <v>0.1647398843930636</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.1242774566473988</v>
+        <v>0.1676300578034682</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.1242774566473988</v>
+        <v>0.1705202312138728</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.1300578034682081</v>
+        <v>0.1763005780346821</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.1329479768786127</v>
+        <v>0.1820809248554913</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.1329479768786127</v>
+        <v>0.1849710982658959</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.1358381502890173</v>
+        <v>0.1849710982658959</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.138728323699422</v>
+        <v>0.1849710982658959</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.138728323699422</v>
+        <v>0.1849710982658959</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.138728323699422</v>
+        <v>0.1849710982658959</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>0.1445086705202312</v>
+        <v>0.1936416184971098</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>0.1445086705202312</v>
+        <v>0.1965317919075145</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>0.1473988439306358</v>
+        <v>0.1994219653179191</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>0.1473988439306358</v>
+        <v>0.1994219653179191</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>0.1473988439306358</v>
+        <v>0.1994219653179191</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>0.1502890173410405</v>
+        <v>0.2052023121387283</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>0.1531791907514451</v>
+        <v>0.208092485549133</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>0.1531791907514451</v>
+        <v>0.208092485549133</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>0.1531791907514451</v>
+        <v>0.2138728323699422</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>0.1531791907514451</v>
+        <v>0.2138728323699422</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>0.1531791907514451</v>
+        <v>0.2167630057803468</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>0.1560693641618497</v>
+        <v>0.2225433526011561</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>0.1589595375722543</v>
+        <v>0.2254335260115607</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>0.1676300578034682</v>
+        <v>0.2254335260115607</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>0.1676300578034682</v>
+        <v>0.2254335260115607</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>0.1705202312138728</v>
+        <v>0.2283236994219653</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>0.1705202312138728</v>
+        <v>0.2312138728323699</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>0.1734104046242775</v>
+        <v>0.2312138728323699</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>0.1734104046242775</v>
+        <v>0.2369942196531792</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>0.1734104046242775</v>
+        <v>0.2398843930635838</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>0.1734104046242775</v>
+        <v>0.2485549132947977</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>0.1763005780346821</v>
+        <v>0.2485549132947977</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>0.1763005780346821</v>
+        <v>0.2485549132947977</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>0.1820809248554913</v>
+        <v>0.2485549132947977</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>0.1849710982658959</v>
+        <v>0.2485549132947977</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>0.1878612716763006</v>
+        <v>0.2485549132947977</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>0.2023121387283237</v>
+        <v>0.2630057803468208</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>0.2109826589595376</v>
+        <v>0.2658959537572254</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>0.2138728323699422</v>
+        <v>0.2687861271676301</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>0.2167630057803468</v>
+        <v>0.2745664739884393</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>0.2167630057803468</v>
+        <v>0.2861271676300578</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>0.2225433526011561</v>
+        <v>0.2890173410404624</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>0.2254335260115607</v>
+        <v>0.2890173410404624</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>0.2254335260115607</v>
+        <v>0.291907514450867</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>0.2283236994219653</v>
+        <v>0.291907514450867</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>0.2341040462427746</v>
+        <v>0.291907514450867</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>0.2369942196531792</v>
+        <v>0.291907514450867</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>0.2398843930635838</v>
+        <v>0.2947976878612717</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>0.2427745664739884</v>
+        <v>0.2976878612716763</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>0.2456647398843931</v>
+        <v>0.3005780346820809</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>0.2456647398843931</v>
+        <v>0.3005780346820809</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>0.2485549132947977</v>
+        <v>0.3063583815028902</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>0.2514450867052023</v>
+        <v>0.3121387283236994</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>0.2514450867052023</v>
+        <v>0.3121387283236994</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>0.2601156069364162</v>
+        <v>0.315028901734104</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>0.2630057803468208</v>
+        <v>0.3208092485549133</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>0.2630057803468208</v>
+        <v>0.3208092485549133</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>0.2687861271676301</v>
+        <v>0.3236994219653179</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>0.2745664739884393</v>
+        <v>0.3352601156069364</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>0.2832369942196532</v>
+        <v>0.3381502890173411</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>0.2861271676300578</v>
+        <v>0.3439306358381503</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>0.2861271676300578</v>
+        <v>0.3468208092485549</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>0.291907514450867</v>
+        <v>0.3497109826589596</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>0.2947976878612717</v>
+        <v>0.3497109826589596</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>0.2947976878612717</v>
+        <v>0.3526011560693642</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>0.2947976878612717</v>
+        <v>0.3554913294797688</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>0.3034682080924855</v>
+        <v>0.3583815028901734</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>0.3063583815028902</v>
+        <v>0.361271676300578</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>0.3092485549132948</v>
+        <v>0.361271676300578</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>0.3121387283236994</v>
+        <v>0.361271676300578</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>0.315028901734104</v>
+        <v>0.3641618497109826</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>0.3208092485549133</v>
+        <v>0.3641618497109826</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>0.3294797687861272</v>
+        <v>0.3670520231213873</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>0.3352601156069364</v>
+        <v>0.3699421965317919</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>0.3497109826589596</v>
+        <v>0.3786127167630058</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>0.361271676300578</v>
+        <v>0.384393063583815</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>0.3699421965317919</v>
+        <v>0.3901734104046243</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>0.3757225433526011</v>
+        <v>0.3930635838150289</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>0.3757225433526011</v>
+        <v>0.4017341040462428</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>0.3757225433526011</v>
+        <v>0.4017341040462428</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>0.3815028901734104</v>
+        <v>0.4046242774566474</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>0.3901734104046243</v>
+        <v>0.4046242774566474</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>0.3901734104046243</v>
+        <v>0.407514450867052</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>0.3901734104046243</v>
+        <v>0.407514450867052</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>0.3959537572254335</v>
+        <v>0.407514450867052</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>0.3959537572254335</v>
+        <v>0.407514450867052</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>0.4046242774566474</v>
+        <v>0.4132947976878613</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>0.407514450867052</v>
+        <v>0.4161849710982659</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>0.4104046242774567</v>
+        <v>0.4219653179190752</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>0.4161849710982659</v>
+        <v>0.4219653179190752</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>0.4161849710982659</v>
+        <v>0.4248554913294798</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>0.4190751445086705</v>
+        <v>0.4277456647398844</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>0.4190751445086705</v>
+        <v>0.430635838150289</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>0.4248554913294798</v>
+        <v>0.4335260115606936</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>0.4277456647398844</v>
+        <v>0.4364161849710982</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>0.430635838150289</v>
+        <v>0.4421965317919075</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>0.430635838150289</v>
+        <v>0.4479768786127168</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>0.4335260115606936</v>
+        <v>0.4508670520231214</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>0.4364161849710982</v>
+        <v>0.4508670520231214</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>0.4421965317919075</v>
+        <v>0.4508670520231214</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>0.4479768786127168</v>
+        <v>0.4566473988439306</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>0.4566473988439306</v>
+        <v>0.4624277456647399</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>0.4566473988439306</v>
+        <v>0.4624277456647399</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>0.4566473988439306</v>
+        <v>0.4624277456647399</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>0.4595375722543353</v>
+        <v>0.4682080924855491</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>0.4624277456647399</v>
+        <v>0.476878612716763</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>0.4624277456647399</v>
+        <v>0.4797687861271676</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>0.4682080924855491</v>
+        <v>0.4855491329479769</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>0.476878612716763</v>
+        <v>0.4942196531791908</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>0.476878612716763</v>
+        <v>0.4971098265895953</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>0.4797687861271676</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>0.4826589595375723</v>
+        <v>0.5028901734104047</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>0.4826589595375723</v>
+        <v>0.5086705202312138</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>0.4942196531791908</v>
+        <v>0.5086705202312138</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>0.4971098265895953</v>
+        <v>0.5115606936416185</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>0.5</v>
+        <v>0.5115606936416185</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>0.5</v>
+        <v>0.5144508670520231</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>0.5057803468208093</v>
+        <v>0.523121387283237</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>0.5086705202312138</v>
+        <v>0.523121387283237</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>0.5115606936416185</v>
+        <v>0.5260115606936416</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>0.5173410404624278</v>
+        <v>0.5289017341040463</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>0.523121387283237</v>
+        <v>0.5317919075144508</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>0.5289017341040463</v>
+        <v>0.5375722543352601</v>
       </c>
     </row>
     <row r="255" spans="1:1">
@@ -1662,12 +1662,12 @@
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>0.5491329479768786</v>
+        <v>0.5404624277456648</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>0.5491329479768786</v>
+        <v>0.546242774566474</v>
       </c>
     </row>
     <row r="259" spans="1:1">
@@ -1682,7 +1682,7 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>0.5549132947976878</v>
+        <v>0.5606936416184971</v>
       </c>
     </row>
     <row r="262" spans="1:1">
@@ -1697,257 +1697,257 @@
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>0.5693641618497109</v>
+        <v>0.5635838150289018</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>0.5693641618497109</v>
+        <v>0.5722543352601156</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>0.5693641618497109</v>
+        <v>0.5751445086705202</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>0.5722543352601156</v>
+        <v>0.5809248554913294</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>0.5780346820809249</v>
+        <v>0.5867052023121387</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>0.5809248554913294</v>
+        <v>0.5867052023121387</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>0.5809248554913294</v>
+        <v>0.5953757225433526</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>0.5809248554913294</v>
+        <v>0.6040462427745664</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>0.5838150289017341</v>
+        <v>0.6098265895953757</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>0.5924855491329479</v>
+        <v>0.615606936416185</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>0.5924855491329479</v>
+        <v>0.6184971098265896</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>0.5924855491329479</v>
+        <v>0.6184971098265896</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>0.5924855491329479</v>
+        <v>0.6184971098265896</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>0.5953757225433526</v>
+        <v>0.6213872832369942</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>0.5982658959537572</v>
+        <v>0.6213872832369942</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>0.5982658959537572</v>
+        <v>0.6242774566473989</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>0.5982658959537572</v>
+        <v>0.6271676300578035</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>0.6098265895953757</v>
+        <v>0.6300578034682081</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>0.6098265895953757</v>
+        <v>0.6300578034682081</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>0.6098265895953757</v>
+        <v>0.6329479768786127</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>0.6127167630057804</v>
+        <v>0.6329479768786127</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>0.6184971098265896</v>
+        <v>0.6358381502890174</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>0.6213872832369942</v>
+        <v>0.638728323699422</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>0.6213872832369942</v>
+        <v>0.6416184971098265</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>0.6242774566473989</v>
+        <v>0.6445086705202312</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>0.6300578034682081</v>
+        <v>0.6502890173410405</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>0.6329479768786127</v>
+        <v>0.653179190751445</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>0.6358381502890174</v>
+        <v>0.6560693641618497</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>0.6358381502890174</v>
+        <v>0.6560693641618497</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>0.6358381502890174</v>
+        <v>0.6589595375722543</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>0.638728323699422</v>
+        <v>0.661849710982659</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>0.6416184971098265</v>
+        <v>0.6705202312138728</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>0.6473988439306358</v>
+        <v>0.6734104046242775</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>0.6502890173410405</v>
+        <v>0.6763005780346821</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>0.653179190751445</v>
+        <v>0.6791907514450867</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>0.6589595375722543</v>
+        <v>0.6791907514450867</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>0.6647398843930635</v>
+        <v>0.684971098265896</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>0.6705202312138728</v>
+        <v>0.684971098265896</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>0.6734104046242775</v>
+        <v>0.6878612716763006</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>0.6763005780346821</v>
+        <v>0.6878612716763006</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>0.6763005780346821</v>
+        <v>0.6936416184971098</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>0.684971098265896</v>
+        <v>0.6965317919075145</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>0.6878612716763006</v>
+        <v>0.6965317919075145</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>0.6878612716763006</v>
+        <v>0.6994219653179191</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>0.6907514450867052</v>
+        <v>0.708092485549133</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>0.6965317919075145</v>
+        <v>0.7109826589595376</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>0.7052023121387283</v>
+        <v>0.7167630057803468</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>0.7109826589595376</v>
+        <v>0.7167630057803468</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>0.7138728323699421</v>
+        <v>0.7196531791907514</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>0.7196531791907514</v>
+        <v>0.7225433526011561</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>0.7196531791907514</v>
+        <v>0.7225433526011561</v>
       </c>
     </row>
     <row r="315" spans="1:1">
@@ -1957,22 +1957,22 @@
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>0.7341040462427746</v>
+        <v>0.7283236994219653</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>0.7398843930635838</v>
+        <v>0.7283236994219653</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>0.7427745664739884</v>
+        <v>0.7312138728323699</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>0.7427745664739884</v>
+        <v>0.7369942196531792</v>
       </c>
     </row>
     <row r="320" spans="1:1">
@@ -1987,192 +1987,192 @@
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>0.7427745664739884</v>
+        <v>0.7514450867052023</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>0.7427745664739884</v>
+        <v>0.7543352601156069</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>0.7427745664739884</v>
+        <v>0.7543352601156069</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>0.7427745664739884</v>
+        <v>0.7543352601156069</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>0.7456647398843931</v>
+        <v>0.7572254335260116</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>0.7456647398843931</v>
+        <v>0.7572254335260116</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>0.7514450867052023</v>
+        <v>0.7687861271676301</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>0.7543352601156069</v>
+        <v>0.7745664739884393</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>0.7601156069364162</v>
+        <v>0.7745664739884393</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>0.7687861271676301</v>
+        <v>0.7745664739884393</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>0.7687861271676301</v>
+        <v>0.7803468208092486</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>0.7745664739884393</v>
+        <v>0.7803468208092486</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>0.7774566473988439</v>
+        <v>0.7803468208092486</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>0.7774566473988439</v>
+        <v>0.7832369942196532</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>0.7803468208092486</v>
+        <v>0.7861271676300579</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>0.7803468208092486</v>
+        <v>0.7890173410404624</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>0.7832369942196532</v>
+        <v>0.7890173410404624</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>0.7861271676300579</v>
+        <v>0.7890173410404624</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>0.7861271676300579</v>
+        <v>0.7890173410404624</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>0.7861271676300579</v>
+        <v>0.791907514450867</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>0.7947976878612717</v>
+        <v>0.791907514450867</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>0.7976878612716763</v>
+        <v>0.791907514450867</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>0.7976878612716763</v>
+        <v>0.791907514450867</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>0.7976878612716763</v>
+        <v>0.791907514450867</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>0.8005780346820809</v>
+        <v>0.7976878612716763</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>0.8005780346820809</v>
+        <v>0.7976878612716763</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>0.8063583815028902</v>
+        <v>0.8034682080924855</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>0.8063583815028902</v>
+        <v>0.8034682080924855</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>0.8092485549132948</v>
+        <v>0.8034682080924855</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>0.8121387283236994</v>
+        <v>0.8034682080924855</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>0.8121387283236994</v>
+        <v>0.8063583815028902</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>0.815028901734104</v>
+        <v>0.8092485549132948</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>0.8179190751445087</v>
+        <v>0.8092485549132948</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>0.8179190751445087</v>
+        <v>0.8092485549132948</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>0.8179190751445087</v>
+        <v>0.8121387283236994</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>0.8179190751445087</v>
+        <v>0.815028901734104</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>0.8179190751445087</v>
+        <v>0.815028901734104</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>0.8208092485549133</v>
+        <v>0.8179190751445087</v>
       </c>
     </row>
     <row r="360" spans="1:1">
@@ -2192,1042 +2192,1042 @@
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>0.8294797687861272</v>
+        <v>0.8236994219653179</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>0.838150289017341</v>
+        <v>0.8265895953757225</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>0.8439306358381503</v>
+        <v>0.8294797687861272</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>0.8439306358381503</v>
+        <v>0.8294797687861272</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>0.8526011560693642</v>
+        <v>0.8294797687861272</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>0.8526011560693642</v>
+        <v>0.8294797687861272</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>0.8554913294797688</v>
+        <v>0.8294797687861272</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>0.8554913294797688</v>
+        <v>0.8323699421965318</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>0.861271676300578</v>
+        <v>0.8352601156069365</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>0.861271676300578</v>
+        <v>0.8352601156069365</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>0.861271676300578</v>
+        <v>0.8352601156069365</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>0.861271676300578</v>
+        <v>0.8352601156069365</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>0.8699421965317919</v>
+        <v>0.8352601156069365</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>0.8699421965317919</v>
+        <v>0.8352601156069365</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>0.8728323699421965</v>
+        <v>0.8352601156069365</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>0.8728323699421965</v>
+        <v>0.838150289017341</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>0.8728323699421965</v>
+        <v>0.838150289017341</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>0.8757225433526011</v>
+        <v>0.8439306358381503</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>0.8757225433526011</v>
+        <v>0.8439306358381503</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>0.8757225433526011</v>
+        <v>0.8554913294797688</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>0.8786127167630058</v>
+        <v>0.8554913294797688</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>0.8815028901734104</v>
+        <v>0.8583815028901735</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>0.8815028901734104</v>
+        <v>0.861271676300578</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>0.8815028901734104</v>
+        <v>0.861271676300578</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>0.8815028901734104</v>
+        <v>0.8641618497109826</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>0.8815028901734104</v>
+        <v>0.8641618497109826</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>0.8815028901734104</v>
+        <v>0.8641618497109826</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>0.884393063583815</v>
+        <v>0.8641618497109826</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>0.8901734104046243</v>
+        <v>0.8641618497109826</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>0.8959537572254336</v>
+        <v>0.8641618497109826</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>0.8988439306358381</v>
+        <v>0.8641618497109826</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>0.8988439306358381</v>
+        <v>0.8670520231213873</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>0.9046242774566474</v>
+        <v>0.8670520231213873</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>0.9046242774566474</v>
+        <v>0.8670520231213873</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>0.9075144508670521</v>
+        <v>0.8670520231213873</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>0.9075144508670521</v>
+        <v>0.8670520231213873</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>0.9075144508670521</v>
+        <v>0.8699421965317919</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>0.9075144508670521</v>
+        <v>0.8757225433526011</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>0.9075144508670521</v>
+        <v>0.8786127167630058</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>0.9075144508670521</v>
+        <v>0.8815028901734104</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>0.9075144508670521</v>
+        <v>0.884393063583815</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>0.9075144508670521</v>
+        <v>0.884393063583815</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>0.9104046242774566</v>
+        <v>0.884393063583815</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>0.9104046242774566</v>
+        <v>0.8872832369942196</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>0.9104046242774566</v>
+        <v>0.8872832369942196</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>0.9132947976878613</v>
+        <v>0.8872832369942196</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>0.9161849710982659</v>
+        <v>0.8872832369942196</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>0.9161849710982659</v>
+        <v>0.8901734104046243</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>0.9190751445086706</v>
+        <v>0.8930635838150289</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>0.9190751445086706</v>
+        <v>0.8930635838150289</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>0.9190751445086706</v>
+        <v>0.8930635838150289</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>0.9190751445086706</v>
+        <v>0.8959537572254336</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>0.9190751445086706</v>
+        <v>0.8988439306358381</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>0.9190751445086706</v>
+        <v>0.9017341040462428</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>0.9190751445086706</v>
+        <v>0.9017341040462428</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>0.9219653179190751</v>
+        <v>0.9017341040462428</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>0.9219653179190751</v>
+        <v>0.9017341040462428</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>0.9219653179190751</v>
+        <v>0.9046242774566474</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>0.9219653179190751</v>
+        <v>0.9075144508670521</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>0.9219653179190751</v>
+        <v>0.9104046242774566</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>0.9219653179190751</v>
+        <v>0.9132947976878613</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>0.9219653179190751</v>
+        <v>0.9132947976878613</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>0.9219653179190751</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>0.9219653179190751</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>0.9219653179190751</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>0.9219653179190751</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>0.9219653179190751</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>0.9219653179190751</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>0.9219653179190751</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>0.9248554913294798</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>0.9306358381502891</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>0.9306358381502891</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>0.9306358381502891</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>0.9306358381502891</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>0.9306358381502891</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>0.9306358381502891</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>0.9335260115606936</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>0.9335260115606936</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>0.9364161849710982</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>0.9364161849710982</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>0.9364161849710982</v>
+        <v>0.9161849710982659</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>0.9364161849710982</v>
+        <v>0.9190751445086706</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>0.9364161849710982</v>
+        <v>0.9190751445086706</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>0.9421965317919075</v>
+        <v>0.9190751445086706</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>0.9421965317919075</v>
+        <v>0.9190751445086706</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>0.9421965317919075</v>
+        <v>0.9190751445086706</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>0.9421965317919075</v>
+        <v>0.9190751445086706</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>0.9421965317919075</v>
+        <v>0.9190751445086706</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>0.9450867052023122</v>
+        <v>0.9219653179190751</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>0.9479768786127167</v>
+        <v>0.9219653179190751</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>0.9479768786127167</v>
+        <v>0.9248554913294798</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>0.9479768786127167</v>
+        <v>0.9248554913294798</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>0.9479768786127167</v>
+        <v>0.9248554913294798</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>0.9508670520231214</v>
+        <v>0.9277456647398844</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>0.9508670520231214</v>
+        <v>0.9277456647398844</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>0.9508670520231214</v>
+        <v>0.9277456647398844</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>0.9508670520231214</v>
+        <v>0.9277456647398844</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>0.953757225433526</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>0.953757225433526</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>0.953757225433526</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>0.953757225433526</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>0.953757225433526</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>0.9566473988439307</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>0.9566473988439307</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>0.9566473988439307</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>0.9566473988439307</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>0.9566473988439307</v>
+        <v>0.9306358381502891</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>0.9566473988439307</v>
+        <v>0.9335260115606936</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>0.9566473988439307</v>
+        <v>0.9335260115606936</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>0.9595375722543352</v>
+        <v>0.9364161849710982</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>0.9595375722543352</v>
+        <v>0.9364161849710982</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>0.9595375722543352</v>
+        <v>0.9364161849710982</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>0.9595375722543352</v>
+        <v>0.9364161849710982</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>0.9595375722543352</v>
+        <v>0.9364161849710982</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>0.9595375722543352</v>
+        <v>0.9421965317919075</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>0.9595375722543352</v>
+        <v>0.9421965317919075</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>0.9595375722543352</v>
+        <v>0.9421965317919075</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>0.9595375722543352</v>
+        <v>0.9421965317919075</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>0.9595375722543352</v>
+        <v>0.9421965317919075</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>0.9595375722543352</v>
+        <v>0.9450867052023122</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>0.9595375722543352</v>
+        <v>0.9450867052023122</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>0.9595375722543352</v>
+        <v>0.9450867052023122</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>0.9595375722543352</v>
+        <v>0.9479768786127167</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>0.9595375722543352</v>
+        <v>0.9479768786127167</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>0.9595375722543352</v>
+        <v>0.9479768786127167</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>0.9595375722543352</v>
+        <v>0.953757225433526</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>0.9595375722543352</v>
+        <v>0.953757225433526</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>0.9595375722543352</v>
+        <v>0.953757225433526</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>0.9595375722543352</v>
+        <v>0.953757225433526</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>0.9595375722543352</v>
+        <v>0.953757225433526</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>0.9595375722543352</v>
+        <v>0.953757225433526</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>0.9595375722543352</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>0.9595375722543352</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>0.9624277456647399</v>
+        <v>0.9566473988439307</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>0.9653179190751445</v>
+        <v>0.9595375722543352</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>0.9653179190751445</v>
+        <v>0.9595375722543352</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>0.9682080924855492</v>
+        <v>0.9595375722543352</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>0.9682080924855492</v>
+        <v>0.9624277456647399</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>0.9682080924855492</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>0.9710982658959537</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>0.9710982658959537</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>0.9710982658959537</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>0.9739884393063584</v>
+        <v>0.9653179190751445</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>0.9739884393063584</v>
+        <v>0.9682080924855492</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>0.9739884393063584</v>
+        <v>0.9682080924855492</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>0.9739884393063584</v>
+        <v>0.9682080924855492</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>0.9739884393063584</v>
+        <v>0.9682080924855492</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>0.9739884393063584</v>
+        <v>0.9682080924855492</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>0.9739884393063584</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>0.9739884393063584</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>0.9739884393063584</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>0.9739884393063584</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>0.9739884393063584</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>0.9739884393063584</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>0.9739884393063584</v>
+        <v>0.9710982658959537</v>
       </c>
     </row>
     <row r="571" spans="1:1">
@@ -3312,7 +3312,7 @@
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>0.9739884393063584</v>
+        <v>0.976878612716763</v>
       </c>
     </row>
     <row r="588" spans="1:1">
@@ -3377,37 +3377,37 @@
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>0.976878612716763</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>0.976878612716763</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>0.976878612716763</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>0.976878612716763</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>0.976878612716763</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>0.976878612716763</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>0.976878612716763</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="607" spans="1:1">
@@ -3422,27 +3422,27 @@
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>0.9826589595375722</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>0.9826589595375722</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>0.9826589595375722</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>0.9826589595375722</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>0.9826589595375722</v>
+        <v>0.9797687861271677</v>
       </c>
     </row>
     <row r="614" spans="1:1">
@@ -3457,261 +3457,141 @@
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>0.9826589595375722</v>
+        <v>0.9855491329479769</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>0.9826589595375722</v>
+        <v>0.9855491329479769</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>0.9826589595375722</v>
+        <v>0.9855491329479769</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>0.9826589595375722</v>
+        <v>0.9855491329479769</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>0.9826589595375722</v>
+        <v>0.9855491329479769</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>0.9826589595375722</v>
+        <v>0.9884393063583815</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>0.9826589595375722</v>
+        <v>0.9884393063583815</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>0.9826589595375722</v>
+        <v>0.9884393063583815</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>0.9826589595375722</v>
+        <v>0.9884393063583815</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>0.9826589595375722</v>
+        <v>0.9884393063583815</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>0.9826589595375722</v>
+        <v>0.9884393063583815</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>0.9826589595375722</v>
+        <v>0.9913294797687862</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>0.9826589595375722</v>
+        <v>0.9913294797687862</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>0.9826589595375722</v>
+        <v>0.9913294797687862</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>0.9826589595375722</v>
+        <v>0.9942196531791907</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>0.9826589595375722</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>0.9855491329479769</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>0.9855491329479769</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>0.9855491329479769</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>0.9884393063583815</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>0.9884393063583815</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>0.9884393063583815</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>0.9884393063583815</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>0.9913294797687862</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>0.9913294797687862</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>0.9913294797687862</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>0.9942196531791907</v>
+        <v>0.9971098265895953</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1">
-      <c r="A644">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1">
-      <c r="A645">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1">
-      <c r="A646">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1">
-      <c r="A647">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1">
-      <c r="A648">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1">
-      <c r="A649">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1">
-      <c r="A650">
-        <v>0.9942196531791907</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1">
-      <c r="A651">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1">
-      <c r="A652">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1">
-      <c r="A653">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1">
-      <c r="A654">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1">
-      <c r="A655">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1">
-      <c r="A656">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1">
-      <c r="A657">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1">
-      <c r="A658">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1">
-      <c r="A660">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1">
-      <c r="A661">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1">
-      <c r="A662">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1">
-      <c r="A663">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1">
-      <c r="A664">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1">
-      <c r="A665">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1">
-      <c r="A666">
-        <v>0.9971098265895953</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1">
-      <c r="A667">
         <v>1</v>
       </c>
     </row>
